--- a/Project_Sprints_Docs.xlsx
+++ b/Project_Sprints_Docs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VirtualKeyFeatures-main\VirtualKeyFeatures-main\VirtualKeyFeatures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="23952" windowHeight="9792"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SPRINTS FOR DEVLOPMENT</t>
   </si>
@@ -43,13 +48,16 @@
   </si>
   <si>
     <t xml:space="preserve">3. Submit </t>
+  </si>
+  <si>
+    <t>https://github.com/Hardik251925/VirtualKeyFeatures.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,30 +66,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="22"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,29 +141,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +260,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,133 +471,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J8"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" customWidth="1"/>
+    <col min="14" max="14" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:14">
-      <c r="H1" s="1" t="s">
+    <row r="1" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="8:14">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="8:14">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="7" spans="8:14">
-      <c r="H7" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="8:14">
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="8:14">
-      <c r="H9" s="4" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="8:14">
-      <c r="H10" s="4" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="8:14">
-      <c r="H11" s="4" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="14" spans="8:14">
-      <c r="H14" s="2" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="8:14">
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="8:14">
-      <c r="H16" s="4" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="8:13">
-      <c r="H17" s="4" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="8:13">
-      <c r="H18" s="4" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H20:P21"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="H18:M18"/>
@@ -540,30 +636,33 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:M11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
